--- a/websites_list.xlsx
+++ b/websites_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
   <si>
     <t xml:space="preserve">Website</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">abcnews.go.com</t>
   </si>
   <si>
-    <t xml:space="preserve">forbes.com</t>
+    <t xml:space="preserve">slashdot.org</t>
   </si>
   <si>
     <t xml:space="preserve">www.washingtonpost.com</t>
@@ -55,10 +55,13 @@
     <t xml:space="preserve">theatlantic.com</t>
   </si>
   <si>
+    <t xml:space="preserve">theconversation.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">businessinsider.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ft.com</t>
+    <t xml:space="preserve">breitbart</t>
   </si>
   <si>
     <t xml:space="preserve">wsj.com</t>
@@ -76,9 +79,17 @@
     <t xml:space="preserve">globalnews.ca</t>
   </si>
   <si>
+    <t xml:space="preserve">boredpanda.com
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">latimes.com</t>
   </si>
   <si>
+    <t xml:space="preserve">ft.com
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">independent.co.uk</t>
   </si>
   <si>
@@ -106,7 +117,7 @@
     <t xml:space="preserve">derstandard.at</t>
   </si>
   <si>
-    <t xml:space="preserve">rt.com</t>
+    <t xml:space="preserve">www.rt.com</t>
   </si>
   <si>
     <t xml:space="preserve">southchinamorningpost.com</t>
@@ -127,6 +138,9 @@
     <t xml:space="preserve">reuters.co.uk</t>
   </si>
   <si>
+    <t xml:space="preserve">tuko.co.ke</t>
+  </si>
+  <si>
     <t xml:space="preserve">bloomberg.com</t>
   </si>
   <si>
@@ -313,6 +327,9 @@
     <t xml:space="preserve">japantimes.co.jp</t>
   </si>
   <si>
+    <t xml:space="preserve">counterpunch.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">smh.com.au</t>
   </si>
   <si>
@@ -382,7 +399,7 @@
     <t xml:space="preserve">nbcnews.com</t>
   </si>
   <si>
-    <t xml:space="preserve">journals.plos.org</t>
+    <t xml:space="preserve">plos.org</t>
   </si>
   <si>
     <t xml:space="preserve">rawstory.com</t>
@@ -406,13 +423,10 @@
     <t xml:space="preserve">wired.com</t>
   </si>
   <si>
-    <t xml:space="preserve">boredpanda.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">abs-cbn.com</t>
   </si>
   <si>
-    <t xml:space="preserve">www.rappler.com</t>
+    <t xml:space="preserve">rappler.com</t>
   </si>
   <si>
     <t xml:space="preserve">pna.gov.ph</t>
@@ -484,7 +498,7 @@
     <t xml:space="preserve">thehillstimes.in</t>
   </si>
   <si>
-    <t xml:space="preserve">indiatimes.com</t>
+    <t xml:space="preserve">timesofindia.indiatimes.com</t>
   </si>
   <si>
     <t xml:space="preserve">euractiv.com</t>
@@ -529,7 +543,7 @@
     <t xml:space="preserve">guardian.com</t>
   </si>
   <si>
-    <t xml:space="preserve">www.ilo.org</t>
+    <t xml:space="preserve">ilo.org</t>
   </si>
   <si>
     <t xml:space="preserve">go.kompas.com</t>
@@ -577,9 +591,6 @@
     <t xml:space="preserve">vietnamplus.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">vietnamnews.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">jagran.com</t>
   </si>
   <si>
@@ -604,13 +615,28 @@
     <t xml:space="preserve">juancole.com</t>
   </si>
   <si>
-    <t xml:space="preserve">theconversation.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">perfil.com</t>
   </si>
   <si>
     <t xml:space="preserve">chinadigitaltimes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitaljournal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popville.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kqed.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globenewswire.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edsurge.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snopes.com</t>
   </si>
 </sst>
 </file>
@@ -620,7 +646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -648,6 +674,26 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -700,7 +746,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -713,7 +759,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,7 +803,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,942 +853,980 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
-        <v>188</v>
+      <c r="A188" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
